--- a/assets/atlas-soc_bom.xlsx
+++ b/assets/atlas-soc_bom.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="17760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ATLAS-SOC KIT BOM" sheetId="2" r:id="rId1"/>
     <sheet name="ATLAS-SOC BOARD BOM" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="305">
   <si>
     <t>DE0-Nano-SoC Acylic board, 2mm, v.02</t>
   </si>
@@ -89,19 +89,883 @@
   <si>
     <t>Sponsor Sheet, v.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacturer P/N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M/ESD</t>
+  </si>
+  <si>
+    <t>929665-09-05-I</t>
+  </si>
+  <si>
+    <t>PIN Header,2*5</t>
+  </si>
+  <si>
+    <t>929665-09-20-I</t>
+  </si>
+  <si>
+    <t>PIN Header,2*20</t>
+  </si>
+  <si>
+    <t>Altera Corporation</t>
+  </si>
+  <si>
+    <t>EPM570GF100C5N</t>
+  </si>
+  <si>
+    <t>IC - MAX II CPLD, 570 LES, 100MBGA, 1.8V VCCINT</t>
+  </si>
+  <si>
+    <t>5CSEMA4U23C6N</t>
+  </si>
+  <si>
+    <t>IC, CYCLONE V SOC, 5CSEMA4U23C6N – UBGA-672, LEADFREE</t>
+  </si>
+  <si>
+    <t>Analog Devices, Inc.</t>
+  </si>
+  <si>
+    <t>ADXL345BCCZ</t>
+  </si>
+  <si>
+    <t>3-Axis, ±2 g/±4 g/±8 g/±16 g Digital Accelerometer</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>AO3415</t>
+  </si>
+  <si>
+    <t>20V 4A P-Channel MOSFET(AO3415)</t>
+  </si>
+  <si>
+    <t>C&amp;K Components</t>
+  </si>
+  <si>
+    <t>OS102011MS2QN1</t>
+  </si>
+  <si>
+    <t>Slide SW, 8.6*4.4, 260 degrees Centigrade</t>
+  </si>
+  <si>
+    <t>Connectek</t>
+  </si>
+  <si>
+    <t>8207S-810X4372</t>
+  </si>
+  <si>
+    <t>RJ45 W/LED WITH 10/100/1000 MBPS FILTER 8P10C, SHIELDED, 25.40mm</t>
+  </si>
+  <si>
+    <t>Cypress Semiconductor Inc.</t>
+  </si>
+  <si>
+    <t>CY7C68013A-56BAXC</t>
+  </si>
+  <si>
+    <t>IC - EZ-USB FX2LP MICROCONTROLLER 400KHZ, 56-VFBGA, 3.3V</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFLS230-7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHOTTKY 2A 30V SOD123</t>
+  </si>
+  <si>
+    <t>BZX84C5V1-7-F</t>
+  </si>
+  <si>
+    <t>350mW SURFACE MOUNT ZENER DIODE(BZX84C5V1-7-F)</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>FT232RQ-REEL</t>
+  </si>
+  <si>
+    <t>FT232R USB UART IC</t>
+  </si>
+  <si>
+    <t>ISSI</t>
+  </si>
+  <si>
+    <t>IS43TR16256A-15HBL</t>
+  </si>
+  <si>
+    <t>256MX16 4Gb DDR3 SDRAM, 1333MT/s, 96-ball FBGA, Lead-free, 1.5V (IS43TR16256A -15HBL)</t>
+  </si>
+  <si>
+    <t>Leamax Enterprise Co</t>
+  </si>
+  <si>
+    <t>32753PA</t>
+  </si>
+  <si>
+    <t>DC JACK</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>LT3080EDD#TRPBF</t>
+  </si>
+  <si>
+    <t>Adjustable 1.1A Single Resistor LDO Pos 0V to 30V 1.1A(LT3080EDD#TRPBF)</t>
+  </si>
+  <si>
+    <t>LTC2308CUF#PBF</t>
+  </si>
+  <si>
+    <t>Low Noise, 500ksps, 8-Channel, 12-Bit ADC (LTC2308CUF#PBF)</t>
+  </si>
+  <si>
+    <t>LTC3612EUDC#TRPBF</t>
+  </si>
+  <si>
+    <t>3A, 4MHZ SYNCH STEP-DOWN DC/DC CONVERTER, VIN 2.25-5.5V, (3X4)MM QFN</t>
+  </si>
+  <si>
+    <t>LT3580EDD#PBF</t>
+  </si>
+  <si>
+    <t>BOOST/INVERTING DC/DC CONVERTER 2A SWITCH, 8-DFN</t>
+  </si>
+  <si>
+    <t>Micrel Semiconductor</t>
+  </si>
+  <si>
+    <t>KSZ9031RNXCA</t>
+  </si>
+  <si>
+    <t>Gigabit Ethernet Transceiver with RGMII Support, 48-PIN QFN</t>
+  </si>
+  <si>
+    <t>Micro Commercial Company</t>
+  </si>
+  <si>
+    <t>SD107WS-TP</t>
+  </si>
+  <si>
+    <t>DIODE, SCHOTTKY, 30V, 100MA, SOD323</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM155R61A105KE15D</t>
+  </si>
+  <si>
+    <t>MLCC, 1uF, +/-10%, 10V, X5R(0402)</t>
+  </si>
+  <si>
+    <t>GRM155R71C104KA88D</t>
+  </si>
+  <si>
+    <t>MLCC, 0.1uF, +/-10%, 16V, X7R(0402)</t>
+  </si>
+  <si>
+    <t>GRM188R61A225KE34x</t>
+  </si>
+  <si>
+    <t>MLCC, 2.2uF, +/-10%, 10V, X5R(0603)</t>
+  </si>
+  <si>
+    <t>GRM155R71H222KA01D</t>
+  </si>
+  <si>
+    <t>MLCC, 2.2nF, +/-10%, 50V, X7R(0402)</t>
+  </si>
+  <si>
+    <t>GCM155R71H332KA37</t>
+  </si>
+  <si>
+    <t>MLCC, 3.3nF, +/-10%, 50V, X7R(0402)</t>
+  </si>
+  <si>
+    <t>GRM155R71H472K</t>
+  </si>
+  <si>
+    <t>MLCC, 4.7nF, +/-10%, 50V, X7R(0402)</t>
+  </si>
+  <si>
+    <t>GRM155R61A474KE15D</t>
+  </si>
+  <si>
+    <t>MLCC, 0.47uF, +/-10%, 10V, X5R(0402)</t>
+  </si>
+  <si>
+    <t>GRM155R61C224KA12D</t>
+  </si>
+  <si>
+    <t>MLCC, 0.22uF, +/-10%, 16V, X5R(0402)</t>
+  </si>
+  <si>
+    <t>GRM155R71H103KA88D</t>
+  </si>
+  <si>
+    <t>MLCC, 10nF, +/-10%, 50V, X7R(0402)</t>
+  </si>
+  <si>
+    <t>GRM31CR60J107ME39L</t>
+  </si>
+  <si>
+    <t>MLCC, 100uF, +/-20%, 6.3V, X5R(1206)</t>
+  </si>
+  <si>
+    <t>GRM155R60J475ME87D</t>
+  </si>
+  <si>
+    <t>MLCC, 4.7uF, +/-20%, 6.3V, X5R(0402)</t>
+  </si>
+  <si>
+    <t>GRM033R60J104KE19D</t>
+  </si>
+  <si>
+    <t>MLCC, 0.1uF, +/-10%, 6.3V, X5R (0201)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM033R71A103KA01D</t>
+  </si>
+  <si>
+    <t>MLCC, 10nF, +/-10%, 10V, X7R (0201)</t>
+  </si>
+  <si>
+    <t>GRM31CR60J476KE19L</t>
+  </si>
+  <si>
+    <t>MLCC, 47uF, +/-10%, 6.3V, X5R(1206)</t>
+  </si>
+  <si>
+    <t>GRM188R61E106MA73L</t>
+  </si>
+  <si>
+    <t>CAP - CER, 10UF, 10V, 20%, X5R, 0603</t>
+  </si>
+  <si>
+    <t>GRM033R61C473KE84D</t>
+  </si>
+  <si>
+    <t>MLCC, 47nF, +/-10%, 16V, X5R(0201)</t>
+  </si>
+  <si>
+    <t>GRM033R61C223KE84D</t>
+  </si>
+  <si>
+    <t>MLCC, 22nF, +/-10%, 16V, X5R(0201)</t>
+  </si>
+  <si>
+    <t>GRM033R71A472KA01D</t>
+  </si>
+  <si>
+    <t>MLCC, 4.7nF, +/-10%, 10V, X7R(0201)</t>
+  </si>
+  <si>
+    <t>GRM155R61A225KE95D</t>
+  </si>
+  <si>
+    <t>MLCC, 2.2uF, +/-10%, 10V, X5R(0402)</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ECJ-0EC1H470J</t>
+  </si>
+  <si>
+    <t>MLCC, 47pF, +/-5%, 50V, NPO(0402)</t>
+  </si>
+  <si>
+    <t>ECJ-1VB0J106M</t>
+  </si>
+  <si>
+    <t>MLCC, 10uF, +/-20%, 6.3V, X5R(0603)</t>
+  </si>
+  <si>
+    <t>ECJ-2FB1A106K</t>
+  </si>
+  <si>
+    <t>MLCC, 10uF, +/-10%, 10V, X5R(0805)</t>
+  </si>
+  <si>
+    <t>ECJ-0EB0J225M</t>
+  </si>
+  <si>
+    <t>MLCC, 2.2uF, +/-20%, 6.3V, X5R(0402)</t>
+  </si>
+  <si>
+    <t>ECJ-0EC1H220J</t>
+  </si>
+  <si>
+    <t>MLCC, 22pF, +/-5%, 50V, NPO(0402)</t>
+  </si>
+  <si>
+    <t>ECJ-0EB1H102K</t>
+  </si>
+  <si>
+    <t>MLCC, 1nF, +/-10%, 50V, X7R(0402)</t>
+  </si>
+  <si>
+    <t>ECJ-1VB1E105K</t>
+  </si>
+  <si>
+    <t>MLCC, 1uF, +/-10%, 25V, X5R(0603)</t>
+  </si>
+  <si>
+    <t>EXB-28V103JX</t>
+  </si>
+  <si>
+    <t>10K ohm, +/-5%, 1/16W, 8P4R(0804), Convex, (0402*4)</t>
+  </si>
+  <si>
+    <t>EXB-28V121JX</t>
+  </si>
+  <si>
+    <t>120 ohm, +/-5%, 1/16W, 8P4R(0804), Convex, (0402*4)</t>
+  </si>
+  <si>
+    <t>EXB-2HV510JV</t>
+  </si>
+  <si>
+    <t>51 ohm, +/-5%, 1/16W, 16P8R, Convex, (0402*8)</t>
+  </si>
+  <si>
+    <t>EXB-28VR000X</t>
+  </si>
+  <si>
+    <t>0 ohm, +/-5%, 1/16W, 8P4R, Convex(0402*4)</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ222X</t>
+  </si>
+  <si>
+    <t>2.2K ohm, +/-5%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ221X</t>
+  </si>
+  <si>
+    <t>220 ohm, +/-5%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF4991X</t>
+  </si>
+  <si>
+    <t>4.99K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ241x</t>
+  </si>
+  <si>
+    <t>240 ohm, +/-5%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF5232x</t>
+  </si>
+  <si>
+    <t>52.3K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF3002x</t>
+  </si>
+  <si>
+    <t>30K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF3163x</t>
+  </si>
+  <si>
+    <t>316K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF8200X</t>
+  </si>
+  <si>
+    <t>820 ohm, +/-1%, , 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1653U</t>
+  </si>
+  <si>
+    <t>165K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF18R2X</t>
+  </si>
+  <si>
+    <t>18.2 ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF35R7X</t>
+  </si>
+  <si>
+    <t>35.7 ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2GE0R00X</t>
+  </si>
+  <si>
+    <t>0 ohm, +/-5%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1000X</t>
+  </si>
+  <si>
+    <t>100 ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1001X</t>
+  </si>
+  <si>
+    <t>1K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1002X</t>
+  </si>
+  <si>
+    <t>10K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF10R0X</t>
+  </si>
+  <si>
+    <t>10 ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2001X</t>
+  </si>
+  <si>
+    <t>2K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2002X</t>
+  </si>
+  <si>
+    <t>20K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF3300X</t>
+  </si>
+  <si>
+    <t>330 ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF4701X</t>
+  </si>
+  <si>
+    <t>4.7K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF49R9X</t>
+  </si>
+  <si>
+    <t>49.9 ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF9312X</t>
+  </si>
+  <si>
+    <t>93.1K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1212X</t>
+  </si>
+  <si>
+    <t>12.1K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF3652X</t>
+  </si>
+  <si>
+    <t>36.5K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1003X</t>
+  </si>
+  <si>
+    <t>100K ohm, +/-1%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1004X</t>
+  </si>
+  <si>
+    <t>1M ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ121X</t>
+  </si>
+  <si>
+    <t>120 ohm, +/-5%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ220X</t>
+  </si>
+  <si>
+    <t>22 ohm, +/-5%, 1/10W (0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1202X</t>
+  </si>
+  <si>
+    <t>12K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF5600X</t>
+  </si>
+  <si>
+    <t>560 ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF6801X</t>
+  </si>
+  <si>
+    <t>6.8K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1503X</t>
+  </si>
+  <si>
+    <t>150K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2GEJ184X</t>
+  </si>
+  <si>
+    <t>180K ohm, +/-5%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF1203X</t>
+  </si>
+  <si>
+    <t>120K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF7502X</t>
+  </si>
+  <si>
+    <t>75K ohm, +/-1%, 1/10W(0402)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic </t>
+  </si>
+  <si>
+    <t>ECJ-RVF1E104Z</t>
+  </si>
+  <si>
+    <t>Ceramic, 0.1uF, +80/-20%, 25V, 8P4C, Y5V</t>
+  </si>
+  <si>
+    <t>EVQP2002W</t>
+  </si>
+  <si>
+    <t>Push button, SMD, 4.7*3.5</t>
+  </si>
+  <si>
+    <t>SAMTEC</t>
+  </si>
+  <si>
+    <t>ESW-106-23-G-S</t>
+  </si>
+  <si>
+    <t>1x6 header, female, pitch 2.54mm, height 13.58mm</t>
+  </si>
+  <si>
+    <t>ESW-108-23-G-S</t>
+  </si>
+  <si>
+    <t>1x8 header, female, pitch 2.54mm, height 13.58mm</t>
+  </si>
+  <si>
+    <t>ESW-110-23-G-S</t>
+  </si>
+  <si>
+    <t>1x10 header, female, pitch 2.54mm, height 13.58mm</t>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>2R5TPE330MAZB</t>
+  </si>
+  <si>
+    <t>Polymer Tantalum capacitor, 330uF, 2.5V, 20%, 3528, 35m ohm(2R5TPE330MAZB)</t>
+  </si>
+  <si>
+    <t>6TPE100MPB</t>
+  </si>
+  <si>
+    <t>Polymer Tantalum capacitor, 100uF, 6.3V, 20%, 3528, 25m ohm(6TPE100MPB)</t>
+  </si>
+  <si>
+    <t>SMSC - Standard Microsystems Corporation</t>
+  </si>
+  <si>
+    <t>USB3300-EZK</t>
+  </si>
+  <si>
+    <t>ICS - USB HOST/OTG PHY ULPI 32-QFN</t>
+  </si>
+  <si>
+    <t>SPANSION</t>
+  </si>
+  <si>
+    <t>S25FL128SAGMFI011</t>
+  </si>
+  <si>
+    <t>128 Mbits (16 Mbytes), MirrorBitR Flash Non-Volatile Memory, 256-kB sectors</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>TMK105BJ104KV-F</t>
+  </si>
+  <si>
+    <t>MLCC, 0.1uF, +/-10%, 25V, X5R(0402)</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C2012X5R1A476M</t>
+  </si>
+  <si>
+    <t>MLCC, 47uF, +/-20%, 10V, X5R (0805)</t>
+  </si>
+  <si>
+    <t>C0603X5R0J474K030BC</t>
+  </si>
+  <si>
+    <t>MLCC, 0.47uF, +/-10%, 6.3V, X5R(0201)</t>
+  </si>
+  <si>
+    <t>TDK Electronics</t>
+  </si>
+  <si>
+    <t>C0603X5R1A224K</t>
+  </si>
+  <si>
+    <t>MLCC, 0.22uF, +/-10%, 10V, X5R (0201)</t>
+  </si>
+  <si>
+    <t>C2012X5R1C106K085AC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLCC, 10uF, +/-10%, 16V, X5R(0805)</t>
+  </si>
+  <si>
+    <t>C2012X5R1A226M085AC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLCC, 22uF, +/-20%, 10V, X5R(0805)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas Instruments, Inc</t>
+  </si>
+  <si>
+    <t>CDCE937PWR</t>
+  </si>
+  <si>
+    <t>Programmable VCXO Clock Generator, 3-PLL, 7 Outputs</t>
+  </si>
+  <si>
+    <t>TPD2E001DRLR</t>
+  </si>
+  <si>
+    <t>LOW-CAPACITANCE 2-CHANNEL ±15-kV ESD-PROTECTION ARRAY</t>
+  </si>
+  <si>
+    <t>TS3A5018DGVR</t>
+  </si>
+  <si>
+    <t>10 ohm Quad SPDT Analog Switch(TS3A5018DGVR)</t>
+  </si>
+  <si>
+    <t>SN74AUC17RGYR</t>
+  </si>
+  <si>
+    <t>HEX Schmitt-Trigger Buffer(SN74AUC17RGYR)</t>
+  </si>
+  <si>
+    <t>Texas Instruments, Inc.</t>
+  </si>
+  <si>
+    <t>TPS51200DRCx</t>
+  </si>
+  <si>
+    <t>REG SINK/SOURCE DDR 10-SON(TPS51200DRCT)</t>
+  </si>
+  <si>
+    <t>TPD2EUSB30DRTR</t>
+  </si>
+  <si>
+    <t>2-CHANNEL PROTECTION SOLUTION FOR SUPER-SPEED (6 GBPS) USB 3.0 INTERFACE</t>
+  </si>
+  <si>
+    <t>TPS2553DRVR</t>
+  </si>
+  <si>
+    <t>PRECISION ADJUSTABLE CURRENT-LIMITED POWER-DISTRIBUTION SWITCHES</t>
+  </si>
+  <si>
+    <t>TLV809K33DBVR</t>
+  </si>
+  <si>
+    <t>IC - Reset IC, THRESHOLD VOLTAGE 2.93V, Active-Low, Push-pll, SOT-23</t>
+  </si>
+  <si>
+    <t>TPS3831K33DQN*</t>
+  </si>
+  <si>
+    <t>IC- Reset IC, Vth 2.93V, Active-Low, Push-pll, with MR</t>
+  </si>
+  <si>
+    <t>TXC CORPORATION</t>
+  </si>
+  <si>
+    <t>8Y-24.000MAAV-T</t>
+  </si>
+  <si>
+    <t>Crystal, 24.000MHz, +/-30ppm, CL=8pF, 1.6mmx2.0mm</t>
+  </si>
+  <si>
+    <t>Unisonic Technologies CO., Ltd</t>
+  </si>
+  <si>
+    <t>HE8050</t>
+  </si>
+  <si>
+    <t>Transistor, NPN, HE8050G-D-AE3-R</t>
+  </si>
+  <si>
+    <t>HE8550</t>
+  </si>
+  <si>
+    <t>Transistor, PNP, HE8550L-D-AE3-R</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik</t>
+  </si>
+  <si>
+    <t>150060VS75000</t>
+  </si>
+  <si>
+    <t>LED - BRIGHT GREEN, VF=2V, IF=0.03A, 0603</t>
+  </si>
+  <si>
+    <t>150060BS75000</t>
+  </si>
+  <si>
+    <t>LED - BLUE, VF = 3.2V, IF = 0.03A, 0603</t>
+  </si>
+  <si>
+    <t>150060SS75000</t>
+  </si>
+  <si>
+    <t>LED - Super Red, VF=2V, IF=0.03A, 0603</t>
+  </si>
+  <si>
+    <t>150060YS75000</t>
+  </si>
+  <si>
+    <t>LED - Yellow, VF=2V, IF=0.03A, 0603</t>
+  </si>
+  <si>
+    <t>651005136521</t>
+  </si>
+  <si>
+    <t>CONN - MINI USB 5POS HORIZ T/H</t>
+  </si>
+  <si>
+    <t>629105150921</t>
+  </si>
+  <si>
+    <t>Micro USB 2.0 Type AB Horizontal 5 Contacts WR-COM</t>
+  </si>
+  <si>
+    <t>HEADER 7X2 2MM TH VERT</t>
+  </si>
+  <si>
+    <t>693071010811</t>
+  </si>
+  <si>
+    <t>CONN-MICRO SD CARD SOCKET</t>
+  </si>
+  <si>
+    <t>IND - FERRITE BEAD, 3A, 30 OHM@100MHZ, 40MOHM MAX, 0603</t>
+  </si>
+  <si>
+    <t>Bead, 10 ohm at 100MHz, 0.5A, 50m ohm, 0402(7427927110)</t>
+  </si>
+  <si>
+    <t>Ferrite Bead, 100 ohm@100MHz, IR = 1.2A, Rdc = 0.09 ohm, 0402</t>
+  </si>
+  <si>
+    <t>IND - SMD EMI FILTERS/CHIP FERRITE BEAD, 220-OHM @ 100MHZ, 0.35-OHM DCR, 0402</t>
+  </si>
+  <si>
+    <t>744383340033</t>
+  </si>
+  <si>
+    <t>Power inductor, 330nH, 4.8A, Rdc typical: 19mohm, 3x3mm</t>
+  </si>
+  <si>
+    <t>Power inductor, 2.2uH, 1.8A, Rdc typical: 94mohm, 3x3mm</t>
+  </si>
+  <si>
+    <t>744383340047</t>
+  </si>
+  <si>
+    <t>Power inductor, 470nH, 4A, Rdc typical: 22mohm, 3x3mm</t>
+  </si>
+  <si>
+    <t>416131160806</t>
+  </si>
+  <si>
+    <t>DIP Switch 6 PoleS, Pitch = 1.27 mm, L9.2*W8*T2.5 mm, SMD</t>
+  </si>
+  <si>
+    <t>Atlas-SoC Board BOM</t>
+  </si>
+  <si>
+    <t>Atlas-SoC Kit BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,8 +988,48 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +1048,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,13 +1139,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="63"/>
+      </left>
+      <right style="medium">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="63"/>
+      </left>
+      <right style="medium">
+        <color indexed="63"/>
+      </right>
+      <top style="medium">
+        <color indexed="63"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,9 +1203,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C20"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -534,34 +1559,31 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16" thickBot="1"/>
-    <row r="2" spans="2:3" ht="17" thickTop="1" thickBot="1">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:3" ht="28">
+      <c r="B1" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="16" thickBot="1"/>
+    <row r="3" spans="2:3" ht="17" thickTop="1" thickBot="1">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16" thickTop="1">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:3" ht="16" thickTop="1">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -569,15 +1591,15 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -585,7 +1607,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -593,15 +1615,15 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
         <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -609,23 +1631,23 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -633,7 +1655,7 @@
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -641,7 +1663,7 @@
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -649,7 +1671,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -657,7 +1679,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -665,7 +1687,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -673,7 +1695,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -681,9 +1703,17 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -700,14 +1730,2092 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:IS131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="36.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="253" width="9" style="11" customWidth="1"/>
+    <col min="258" max="258" width="39.1640625" customWidth="1"/>
+    <col min="259" max="259" width="30.1640625" customWidth="1"/>
+    <col min="260" max="260" width="62.33203125" customWidth="1"/>
+    <col min="261" max="509" width="9" customWidth="1"/>
+    <col min="514" max="514" width="39.1640625" customWidth="1"/>
+    <col min="515" max="515" width="30.1640625" customWidth="1"/>
+    <col min="516" max="516" width="62.33203125" customWidth="1"/>
+    <col min="517" max="765" width="9" customWidth="1"/>
+    <col min="770" max="770" width="39.1640625" customWidth="1"/>
+    <col min="771" max="771" width="30.1640625" customWidth="1"/>
+    <col min="772" max="772" width="62.33203125" customWidth="1"/>
+    <col min="773" max="1021" width="9" customWidth="1"/>
+    <col min="1026" max="1026" width="39.1640625" customWidth="1"/>
+    <col min="1027" max="1027" width="30.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="62.33203125" customWidth="1"/>
+    <col min="1029" max="1277" width="9" customWidth="1"/>
+    <col min="1282" max="1282" width="39.1640625" customWidth="1"/>
+    <col min="1283" max="1283" width="30.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="62.33203125" customWidth="1"/>
+    <col min="1285" max="1533" width="9" customWidth="1"/>
+    <col min="1538" max="1538" width="39.1640625" customWidth="1"/>
+    <col min="1539" max="1539" width="30.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="62.33203125" customWidth="1"/>
+    <col min="1541" max="1789" width="9" customWidth="1"/>
+    <col min="1794" max="1794" width="39.1640625" customWidth="1"/>
+    <col min="1795" max="1795" width="30.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="62.33203125" customWidth="1"/>
+    <col min="1797" max="2045" width="9" customWidth="1"/>
+    <col min="2050" max="2050" width="39.1640625" customWidth="1"/>
+    <col min="2051" max="2051" width="30.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="62.33203125" customWidth="1"/>
+    <col min="2053" max="2301" width="9" customWidth="1"/>
+    <col min="2306" max="2306" width="39.1640625" customWidth="1"/>
+    <col min="2307" max="2307" width="30.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="62.33203125" customWidth="1"/>
+    <col min="2309" max="2557" width="9" customWidth="1"/>
+    <col min="2562" max="2562" width="39.1640625" customWidth="1"/>
+    <col min="2563" max="2563" width="30.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="62.33203125" customWidth="1"/>
+    <col min="2565" max="2813" width="9" customWidth="1"/>
+    <col min="2818" max="2818" width="39.1640625" customWidth="1"/>
+    <col min="2819" max="2819" width="30.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="62.33203125" customWidth="1"/>
+    <col min="2821" max="3069" width="9" customWidth="1"/>
+    <col min="3074" max="3074" width="39.1640625" customWidth="1"/>
+    <col min="3075" max="3075" width="30.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="62.33203125" customWidth="1"/>
+    <col min="3077" max="3325" width="9" customWidth="1"/>
+    <col min="3330" max="3330" width="39.1640625" customWidth="1"/>
+    <col min="3331" max="3331" width="30.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="62.33203125" customWidth="1"/>
+    <col min="3333" max="3581" width="9" customWidth="1"/>
+    <col min="3586" max="3586" width="39.1640625" customWidth="1"/>
+    <col min="3587" max="3587" width="30.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="62.33203125" customWidth="1"/>
+    <col min="3589" max="3837" width="9" customWidth="1"/>
+    <col min="3842" max="3842" width="39.1640625" customWidth="1"/>
+    <col min="3843" max="3843" width="30.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="62.33203125" customWidth="1"/>
+    <col min="3845" max="4093" width="9" customWidth="1"/>
+    <col min="4098" max="4098" width="39.1640625" customWidth="1"/>
+    <col min="4099" max="4099" width="30.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="62.33203125" customWidth="1"/>
+    <col min="4101" max="4349" width="9" customWidth="1"/>
+    <col min="4354" max="4354" width="39.1640625" customWidth="1"/>
+    <col min="4355" max="4355" width="30.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="62.33203125" customWidth="1"/>
+    <col min="4357" max="4605" width="9" customWidth="1"/>
+    <col min="4610" max="4610" width="39.1640625" customWidth="1"/>
+    <col min="4611" max="4611" width="30.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="62.33203125" customWidth="1"/>
+    <col min="4613" max="4861" width="9" customWidth="1"/>
+    <col min="4866" max="4866" width="39.1640625" customWidth="1"/>
+    <col min="4867" max="4867" width="30.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="62.33203125" customWidth="1"/>
+    <col min="4869" max="5117" width="9" customWidth="1"/>
+    <col min="5122" max="5122" width="39.1640625" customWidth="1"/>
+    <col min="5123" max="5123" width="30.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="62.33203125" customWidth="1"/>
+    <col min="5125" max="5373" width="9" customWidth="1"/>
+    <col min="5378" max="5378" width="39.1640625" customWidth="1"/>
+    <col min="5379" max="5379" width="30.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="62.33203125" customWidth="1"/>
+    <col min="5381" max="5629" width="9" customWidth="1"/>
+    <col min="5634" max="5634" width="39.1640625" customWidth="1"/>
+    <col min="5635" max="5635" width="30.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="62.33203125" customWidth="1"/>
+    <col min="5637" max="5885" width="9" customWidth="1"/>
+    <col min="5890" max="5890" width="39.1640625" customWidth="1"/>
+    <col min="5891" max="5891" width="30.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="62.33203125" customWidth="1"/>
+    <col min="5893" max="6141" width="9" customWidth="1"/>
+    <col min="6146" max="6146" width="39.1640625" customWidth="1"/>
+    <col min="6147" max="6147" width="30.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="62.33203125" customWidth="1"/>
+    <col min="6149" max="6397" width="9" customWidth="1"/>
+    <col min="6402" max="6402" width="39.1640625" customWidth="1"/>
+    <col min="6403" max="6403" width="30.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="62.33203125" customWidth="1"/>
+    <col min="6405" max="6653" width="9" customWidth="1"/>
+    <col min="6658" max="6658" width="39.1640625" customWidth="1"/>
+    <col min="6659" max="6659" width="30.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="62.33203125" customWidth="1"/>
+    <col min="6661" max="6909" width="9" customWidth="1"/>
+    <col min="6914" max="6914" width="39.1640625" customWidth="1"/>
+    <col min="6915" max="6915" width="30.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="62.33203125" customWidth="1"/>
+    <col min="6917" max="7165" width="9" customWidth="1"/>
+    <col min="7170" max="7170" width="39.1640625" customWidth="1"/>
+    <col min="7171" max="7171" width="30.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="62.33203125" customWidth="1"/>
+    <col min="7173" max="7421" width="9" customWidth="1"/>
+    <col min="7426" max="7426" width="39.1640625" customWidth="1"/>
+    <col min="7427" max="7427" width="30.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="62.33203125" customWidth="1"/>
+    <col min="7429" max="7677" width="9" customWidth="1"/>
+    <col min="7682" max="7682" width="39.1640625" customWidth="1"/>
+    <col min="7683" max="7683" width="30.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="62.33203125" customWidth="1"/>
+    <col min="7685" max="7933" width="9" customWidth="1"/>
+    <col min="7938" max="7938" width="39.1640625" customWidth="1"/>
+    <col min="7939" max="7939" width="30.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="62.33203125" customWidth="1"/>
+    <col min="7941" max="8189" width="9" customWidth="1"/>
+    <col min="8194" max="8194" width="39.1640625" customWidth="1"/>
+    <col min="8195" max="8195" width="30.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="62.33203125" customWidth="1"/>
+    <col min="8197" max="8445" width="9" customWidth="1"/>
+    <col min="8450" max="8450" width="39.1640625" customWidth="1"/>
+    <col min="8451" max="8451" width="30.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="62.33203125" customWidth="1"/>
+    <col min="8453" max="8701" width="9" customWidth="1"/>
+    <col min="8706" max="8706" width="39.1640625" customWidth="1"/>
+    <col min="8707" max="8707" width="30.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="62.33203125" customWidth="1"/>
+    <col min="8709" max="8957" width="9" customWidth="1"/>
+    <col min="8962" max="8962" width="39.1640625" customWidth="1"/>
+    <col min="8963" max="8963" width="30.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="62.33203125" customWidth="1"/>
+    <col min="8965" max="9213" width="9" customWidth="1"/>
+    <col min="9218" max="9218" width="39.1640625" customWidth="1"/>
+    <col min="9219" max="9219" width="30.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="62.33203125" customWidth="1"/>
+    <col min="9221" max="9469" width="9" customWidth="1"/>
+    <col min="9474" max="9474" width="39.1640625" customWidth="1"/>
+    <col min="9475" max="9475" width="30.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="62.33203125" customWidth="1"/>
+    <col min="9477" max="9725" width="9" customWidth="1"/>
+    <col min="9730" max="9730" width="39.1640625" customWidth="1"/>
+    <col min="9731" max="9731" width="30.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="62.33203125" customWidth="1"/>
+    <col min="9733" max="9981" width="9" customWidth="1"/>
+    <col min="9986" max="9986" width="39.1640625" customWidth="1"/>
+    <col min="9987" max="9987" width="30.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="62.33203125" customWidth="1"/>
+    <col min="9989" max="10237" width="9" customWidth="1"/>
+    <col min="10242" max="10242" width="39.1640625" customWidth="1"/>
+    <col min="10243" max="10243" width="30.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="62.33203125" customWidth="1"/>
+    <col min="10245" max="10493" width="9" customWidth="1"/>
+    <col min="10498" max="10498" width="39.1640625" customWidth="1"/>
+    <col min="10499" max="10499" width="30.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="62.33203125" customWidth="1"/>
+    <col min="10501" max="10749" width="9" customWidth="1"/>
+    <col min="10754" max="10754" width="39.1640625" customWidth="1"/>
+    <col min="10755" max="10755" width="30.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="62.33203125" customWidth="1"/>
+    <col min="10757" max="11005" width="9" customWidth="1"/>
+    <col min="11010" max="11010" width="39.1640625" customWidth="1"/>
+    <col min="11011" max="11011" width="30.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="62.33203125" customWidth="1"/>
+    <col min="11013" max="11261" width="9" customWidth="1"/>
+    <col min="11266" max="11266" width="39.1640625" customWidth="1"/>
+    <col min="11267" max="11267" width="30.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="62.33203125" customWidth="1"/>
+    <col min="11269" max="11517" width="9" customWidth="1"/>
+    <col min="11522" max="11522" width="39.1640625" customWidth="1"/>
+    <col min="11523" max="11523" width="30.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="62.33203125" customWidth="1"/>
+    <col min="11525" max="11773" width="9" customWidth="1"/>
+    <col min="11778" max="11778" width="39.1640625" customWidth="1"/>
+    <col min="11779" max="11779" width="30.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="62.33203125" customWidth="1"/>
+    <col min="11781" max="12029" width="9" customWidth="1"/>
+    <col min="12034" max="12034" width="39.1640625" customWidth="1"/>
+    <col min="12035" max="12035" width="30.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="62.33203125" customWidth="1"/>
+    <col min="12037" max="12285" width="9" customWidth="1"/>
+    <col min="12290" max="12290" width="39.1640625" customWidth="1"/>
+    <col min="12291" max="12291" width="30.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="62.33203125" customWidth="1"/>
+    <col min="12293" max="12541" width="9" customWidth="1"/>
+    <col min="12546" max="12546" width="39.1640625" customWidth="1"/>
+    <col min="12547" max="12547" width="30.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="62.33203125" customWidth="1"/>
+    <col min="12549" max="12797" width="9" customWidth="1"/>
+    <col min="12802" max="12802" width="39.1640625" customWidth="1"/>
+    <col min="12803" max="12803" width="30.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="62.33203125" customWidth="1"/>
+    <col min="12805" max="13053" width="9" customWidth="1"/>
+    <col min="13058" max="13058" width="39.1640625" customWidth="1"/>
+    <col min="13059" max="13059" width="30.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="62.33203125" customWidth="1"/>
+    <col min="13061" max="13309" width="9" customWidth="1"/>
+    <col min="13314" max="13314" width="39.1640625" customWidth="1"/>
+    <col min="13315" max="13315" width="30.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="62.33203125" customWidth="1"/>
+    <col min="13317" max="13565" width="9" customWidth="1"/>
+    <col min="13570" max="13570" width="39.1640625" customWidth="1"/>
+    <col min="13571" max="13571" width="30.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="62.33203125" customWidth="1"/>
+    <col min="13573" max="13821" width="9" customWidth="1"/>
+    <col min="13826" max="13826" width="39.1640625" customWidth="1"/>
+    <col min="13827" max="13827" width="30.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="62.33203125" customWidth="1"/>
+    <col min="13829" max="14077" width="9" customWidth="1"/>
+    <col min="14082" max="14082" width="39.1640625" customWidth="1"/>
+    <col min="14083" max="14083" width="30.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="62.33203125" customWidth="1"/>
+    <col min="14085" max="14333" width="9" customWidth="1"/>
+    <col min="14338" max="14338" width="39.1640625" customWidth="1"/>
+    <col min="14339" max="14339" width="30.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="62.33203125" customWidth="1"/>
+    <col min="14341" max="14589" width="9" customWidth="1"/>
+    <col min="14594" max="14594" width="39.1640625" customWidth="1"/>
+    <col min="14595" max="14595" width="30.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="62.33203125" customWidth="1"/>
+    <col min="14597" max="14845" width="9" customWidth="1"/>
+    <col min="14850" max="14850" width="39.1640625" customWidth="1"/>
+    <col min="14851" max="14851" width="30.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="62.33203125" customWidth="1"/>
+    <col min="14853" max="15101" width="9" customWidth="1"/>
+    <col min="15106" max="15106" width="39.1640625" customWidth="1"/>
+    <col min="15107" max="15107" width="30.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="62.33203125" customWidth="1"/>
+    <col min="15109" max="15357" width="9" customWidth="1"/>
+    <col min="15362" max="15362" width="39.1640625" customWidth="1"/>
+    <col min="15363" max="15363" width="30.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="62.33203125" customWidth="1"/>
+    <col min="15365" max="15613" width="9" customWidth="1"/>
+    <col min="15618" max="15618" width="39.1640625" customWidth="1"/>
+    <col min="15619" max="15619" width="30.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="62.33203125" customWidth="1"/>
+    <col min="15621" max="15869" width="9" customWidth="1"/>
+    <col min="15874" max="15874" width="39.1640625" customWidth="1"/>
+    <col min="15875" max="15875" width="30.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="62.33203125" customWidth="1"/>
+    <col min="15877" max="16125" width="9" customWidth="1"/>
+    <col min="16130" max="16130" width="39.1640625" customWidth="1"/>
+    <col min="16131" max="16131" width="30.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="62.33203125" customWidth="1"/>
+    <col min="16133" max="16381" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="28">
+      <c r="B1" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="2:5" ht="16" thickBot="1">
+      <c r="B3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="16" thickBot="1">
+      <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16" thickBot="1">
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16" thickBot="1">
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="16" thickBot="1">
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="16" thickBot="1">
+      <c r="B8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16" thickBot="1">
+      <c r="B9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B26" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B28" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B38" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B39" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B40" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B41" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B42" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B43" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B44" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B45" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B46" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B47" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B48" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B49" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B50" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B51" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B52" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B53" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B54" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B57" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B58" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B59" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B60" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B61" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B62" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B63" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B64" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B65" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B66" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B67" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B68" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B69" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B70" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B71" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B72" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B73" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B74" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B75" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B76" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B77" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B78" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B79" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B80" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B81" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B82" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B83" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B84" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B85" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B86" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B87" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B88" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B89" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B90" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B91" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E91" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B92" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B93" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B94" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B95" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E95" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B96" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B97" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B98" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E98" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B99" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B100" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B101" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B102" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E102" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B103" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B104" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E104" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B105" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B106" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E106" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B107" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B108" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E108" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B109" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E109" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B110" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B111" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E111" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B112" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E112" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B113" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E113" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B114" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E114" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B115" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E115" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B116" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E116" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B117" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E117" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B118" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E118" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B119" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E119" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B120" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B121" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B122" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" s="18">
+        <v>62501421621</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E122" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B123" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B124" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" s="18">
+        <v>742792609</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E124" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B125" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" s="18">
+        <v>7427927110</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E125" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B126" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="18">
+        <v>742792731</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E126" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" s="19" customFormat="1" ht="31" thickBot="1">
+      <c r="B127" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="18">
+        <v>742792780</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E127" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B128" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E128" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B129" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C129" s="18">
+        <v>74438335022</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E129" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B130" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E130" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B131" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E131" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
